--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -151,10 +151,10 @@
     <t>东波分理处</t>
   </si>
   <si>
-    <t>益江分理处</t>
-  </si>
-  <si>
-    <t>南新分理处</t>
+    <t>益江支行</t>
+  </si>
+  <si>
+    <t>南新支行</t>
   </si>
   <si>
     <t>凌兆分理处</t>
@@ -561,19 +561,19 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H2">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -584,19 +584,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>11.4</v>
+        <v>7.950000000000003</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H3">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -610,16 +610,16 @@
         <v>-0.4699999999999989</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -630,19 +630,19 @@
         <v>90</v>
       </c>
       <c r="C5">
-        <v>30.5717</v>
+        <v>-0.04829999999999757</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H5">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -653,7 +653,7 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>0.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>26</v>
@@ -676,19 +676,19 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>9.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H7">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -699,19 +699,19 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>10.4</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H8">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -722,7 +722,7 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>6.699999999999999</v>
+        <v>-0.3000000000000007</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -745,19 +745,19 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.3500000000000014</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -768,19 +768,19 @@
         <v>140</v>
       </c>
       <c r="C11">
-        <v>0.2300000000000004</v>
+        <v>-0.2700000000000031</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -814,10 +814,10 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>10.8877</v>
+        <v>4.537699999999997</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>1.22</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>20.22</v>
+        <v>25.22</v>
       </c>
       <c r="H13">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -840,7 +840,7 @@
         <v>70</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -863,19 +863,19 @@
         <v>200</v>
       </c>
       <c r="C15">
-        <v>4.1</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H15">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>110</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>80</v>
       </c>
       <c r="C17">
-        <v>9.449999999999999</v>
+        <v>20.05</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H17">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -935,19 +935,19 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -958,7 +958,7 @@
         <v>100</v>
       </c>
       <c r="C19">
-        <v>19.9</v>
+        <v>-0.1000000000000014</v>
       </c>
       <c r="D19">
         <v>43</v>
@@ -981,7 +981,7 @@
         <v>50</v>
       </c>
       <c r="C20">
-        <v>2.700000000000003</v>
+        <v>0.3239999999999981</v>
       </c>
       <c r="D20">
         <v>57</v>
@@ -1004,19 +1004,19 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>-0.3</v>
+        <v>4.7</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H21">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1027,19 +1027,19 @@
         <v>80</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H22">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1050,19 +1050,19 @@
         <v>40</v>
       </c>
       <c r="C23">
-        <v>-0.2000000000000002</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H23">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1073,7 +1073,7 @@
         <v>40</v>
       </c>
       <c r="C24">
-        <v>-0.04980000000000118</v>
+        <v>0.0001999999999995339</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>40</v>
       </c>
       <c r="C26">
-        <v>2.5</v>
+        <v>0.2300000000000004</v>
       </c>
       <c r="D26">
         <v>16</v>
@@ -1145,19 +1145,22 @@
         <v>150</v>
       </c>
       <c r="C27">
-        <v>0.4399999999999977</v>
+        <v>5.739999999999995</v>
       </c>
       <c r="D27">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>1.3</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>36</v>
+        <v>41.3</v>
       </c>
       <c r="H27">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1191,7 +1194,7 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>18</v>
@@ -1214,19 +1217,19 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1237,7 +1240,7 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -1260,7 +1263,7 @@
         <v>50</v>
       </c>
       <c r="C32">
-        <v>1.012</v>
+        <v>0.01200000000000001</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1283,19 +1286,19 @@
         <v>170</v>
       </c>
       <c r="C33">
-        <v>5.3838</v>
+        <v>0.4738000000000007</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1306,7 +1309,7 @@
         <v>60</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -1352,7 +1355,7 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <v>1.6</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -1375,10 +1378,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -1387,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H37">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1424,7 +1427,7 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1450,19 +1453,19 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1473,19 +1476,19 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>-5.2</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1565,7 +1568,7 @@
         <v>30</v>
       </c>
       <c r="C45">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>

--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -1453,19 +1453,19 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1476,19 +1476,19 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>-5.2</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="42" spans="1:8">

--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -561,19 +561,19 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="H2">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -584,19 +584,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>7.950000000000003</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H3">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -607,7 +607,7 @@
         <v>160</v>
       </c>
       <c r="C4">
-        <v>-0.4699999999999989</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>48</v>
@@ -630,19 +630,22 @@
         <v>90</v>
       </c>
       <c r="C5">
-        <v>-0.04829999999999757</v>
+        <v>12.8</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="E5">
+        <v>4.8</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>59</v>
+        <v>71.8</v>
       </c>
       <c r="H5">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -676,19 +679,19 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>10.7</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -699,7 +702,7 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.4000000000000057</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>66</v>
@@ -722,7 +725,7 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -745,7 +748,7 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.2899999999999991</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>31</v>
@@ -768,19 +771,19 @@
         <v>140</v>
       </c>
       <c r="C11">
-        <v>-0.2700000000000031</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H11">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -791,19 +794,19 @@
         <v>70</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -814,10 +817,10 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>4.537699999999997</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>1.22</v>
@@ -826,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.22</v>
+        <v>31.22</v>
       </c>
       <c r="H13">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -840,7 +843,7 @@
         <v>70</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -863,19 +866,19 @@
         <v>200</v>
       </c>
       <c r="C15">
-        <v>0.9000000000000004</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,22 +889,22 @@
         <v>110</v>
       </c>
       <c r="C16">
-        <v>-0.1999999999999993</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H16">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +915,7 @@
         <v>80</v>
       </c>
       <c r="C17">
-        <v>20.05</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -935,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>44</v>
@@ -958,19 +961,19 @@
         <v>100</v>
       </c>
       <c r="C19">
-        <v>-0.1000000000000014</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H19">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -981,7 +984,7 @@
         <v>50</v>
       </c>
       <c r="C20">
-        <v>0.3239999999999981</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>57</v>
@@ -1004,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -1027,7 +1030,7 @@
         <v>80</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>15</v>
@@ -1050,7 +1053,7 @@
         <v>40</v>
       </c>
       <c r="C23">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>11</v>
@@ -1073,7 +1076,7 @@
         <v>40</v>
       </c>
       <c r="C24">
-        <v>0.0001999999999995339</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1122,7 +1125,7 @@
         <v>40</v>
       </c>
       <c r="C26">
-        <v>0.2300000000000004</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>16</v>
@@ -1145,7 +1148,7 @@
         <v>150</v>
       </c>
       <c r="C27">
-        <v>5.739999999999995</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>40</v>
@@ -1171,19 +1174,19 @@
         <v>60</v>
       </c>
       <c r="C28">
-        <v>-0.4199999999999999</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H28">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1217,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>14</v>
@@ -1240,7 +1243,7 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>0.3999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -1263,7 +1266,7 @@
         <v>50</v>
       </c>
       <c r="C32">
-        <v>0.01200000000000001</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1286,19 +1289,19 @@
         <v>170</v>
       </c>
       <c r="C33">
-        <v>0.4738000000000007</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H33">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1309,7 +1312,7 @@
         <v>60</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -1355,7 +1358,7 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -1378,7 +1381,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -1404,7 +1407,7 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1427,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>-0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1476,7 +1479,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>-0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -1499,7 +1502,7 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>6</v>

--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -561,19 +561,19 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="H2">
-        <v>0.68</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -584,19 +584,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H3">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -607,19 +607,19 @@
         <v>160</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="H4">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -630,10 +630,10 @@
         <v>90</v>
       </c>
       <c r="C5">
-        <v>12.8</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>4.8</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>71.8</v>
+        <v>75.8</v>
       </c>
       <c r="H5">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -656,19 +656,19 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H6">
-        <v>0.22</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -679,19 +679,19 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H7">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -702,19 +702,19 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H8">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -725,19 +725,19 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>0.28</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -771,7 +771,7 @@
         <v>140</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>37</v>
@@ -794,19 +794,19 @@
         <v>70</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -817,22 +817,22 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13">
-        <v>1.22</v>
+        <v>14.72</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>31.22</v>
+        <v>45.72</v>
       </c>
       <c r="H13">
-        <v>0.39</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -843,19 +843,19 @@
         <v>70</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H14">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -866,19 +866,19 @@
         <v>200</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="H15">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -889,22 +889,22 @@
         <v>110</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>40</v>
+        <v>49.8</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>40</v>
+        <v>58.8</v>
       </c>
       <c r="H16">
-        <v>0.36</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -915,19 +915,19 @@
         <v>80</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,19 +938,19 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H18">
-        <v>2.2</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -961,7 +961,7 @@
         <v>100</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>51</v>
@@ -1033,16 +1033,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>17.97</v>
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>17.97</v>
+        <v>37.97</v>
       </c>
       <c r="H24">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1148,10 +1148,10 @@
         <v>150</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>1.3</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>41.3</v>
+        <v>42.3</v>
       </c>
       <c r="H27">
         <v>0.28</v>
@@ -1174,7 +1174,7 @@
         <v>60</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>13</v>
@@ -1197,19 +1197,19 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1220,19 +1220,19 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H30">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1243,19 +1243,19 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1266,19 +1266,19 @@
         <v>50</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H32">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1289,19 +1289,19 @@
         <v>170</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H33">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1315,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H34">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1358,19 +1358,19 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1456,19 +1456,19 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H40">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1479,19 +1479,19 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H41">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1551,16 +1551,16 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="45" spans="1:8">

--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -561,19 +561,19 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H2">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -584,7 +584,7 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>54</v>
@@ -607,7 +607,7 @@
         <v>160</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>72</v>
@@ -630,22 +630,22 @@
         <v>90</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E5">
-        <v>4.8</v>
+        <v>19.8</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>75.8</v>
+        <v>105.8</v>
       </c>
       <c r="H5">
-        <v>0.84</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -656,16 +656,16 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>0.48</v>
@@ -679,7 +679,7 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>59</v>
@@ -702,7 +702,7 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>85</v>
@@ -725,7 +725,7 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>44</v>
@@ -748,19 +748,19 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H10">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -771,19 +771,19 @@
         <v>140</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -817,22 +817,22 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>31</v>
       </c>
       <c r="E13">
-        <v>14.72</v>
+        <v>34.72</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.72</v>
+        <v>65.72</v>
       </c>
       <c r="H13">
-        <v>0.57</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -843,19 +843,19 @@
         <v>70</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H14">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -866,19 +866,19 @@
         <v>200</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H15">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -889,7 +889,7 @@
         <v>110</v>
       </c>
       <c r="C16">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -915,7 +915,7 @@
         <v>80</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>51</v>
@@ -938,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>57</v>
@@ -984,19 +984,19 @@
         <v>50</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H20">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1125,19 +1125,19 @@
         <v>40</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H26">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1148,10 +1148,10 @@
         <v>150</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>1.3</v>
@@ -1160,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>42.3</v>
+        <v>62.3</v>
       </c>
       <c r="H27">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1197,7 +1197,7 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>38</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -1243,7 +1243,7 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -1266,19 +1266,19 @@
         <v>50</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H32">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1289,7 +1289,7 @@
         <v>170</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>16</v>
@@ -1358,7 +1358,7 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>10</v>
@@ -1456,7 +1456,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -1479,7 +1479,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>13</v>

--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -561,19 +561,19 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H2">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -607,19 +607,19 @@
         <v>160</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -630,10 +630,10 @@
         <v>90</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>19.8</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>105.8</v>
+        <v>110.8</v>
       </c>
       <c r="H5">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -656,7 +656,7 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>58</v>
@@ -679,19 +679,19 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H7">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -702,19 +702,19 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H8">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -725,19 +725,19 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H9">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -748,7 +748,7 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>41</v>
@@ -771,7 +771,7 @@
         <v>140</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>40</v>
@@ -817,10 +817,10 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>34.72</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>65.72</v>
+        <v>66.72</v>
       </c>
       <c r="H13">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -843,7 +843,7 @@
         <v>70</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>26</v>
@@ -866,7 +866,7 @@
         <v>200</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>95</v>
@@ -915,19 +915,19 @@
         <v>80</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H17">
-        <v>0.64</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,19 +938,19 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H18">
-        <v>2.85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -984,19 +984,19 @@
         <v>50</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H20">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1125,7 +1125,7 @@
         <v>40</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>18</v>
@@ -1148,7 +1148,7 @@
         <v>150</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>61</v>
@@ -1266,7 +1266,7 @@
         <v>50</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>17</v>
@@ -1289,19 +1289,19 @@
         <v>170</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H33">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="34" spans="1:8">

--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -561,7 +561,7 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>141</v>
@@ -607,7 +607,7 @@
         <v>160</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>73</v>
@@ -630,10 +630,10 @@
         <v>90</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>19.8</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>110.8</v>
+        <v>118.8</v>
       </c>
       <c r="H5">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -656,19 +656,19 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -679,7 +679,7 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>62</v>
@@ -702,19 +702,19 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H8">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -725,7 +725,7 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>48</v>
@@ -748,19 +748,19 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -817,7 +817,7 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>32</v>
@@ -915,7 +915,7 @@
         <v>80</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>61</v>
@@ -938,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>60</v>
@@ -984,19 +984,19 @@
         <v>50</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H20">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1030,19 +1030,19 @@
         <v>80</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1102,19 +1102,19 @@
         <v>20</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1289,16 +1289,16 @@
         <v>170</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33">
         <v>0.11</v>
@@ -1358,19 +1358,19 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H36">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="37" spans="1:8">

--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -564,16 +564,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H2">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -584,19 +584,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H3">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -610,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H4">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -630,10 +630,10 @@
         <v>90</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>19.8</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>118.8</v>
+        <v>141.8</v>
       </c>
       <c r="H5">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -656,19 +656,19 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="H6">
-        <v>0.49</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -682,16 +682,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H7">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -702,19 +702,19 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="H8">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -725,19 +725,19 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H9">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -748,19 +748,19 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="H10">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -771,19 +771,19 @@
         <v>140</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H11">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H12">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -817,22 +817,22 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E13">
-        <v>34.72</v>
+        <v>41.72</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>66.72</v>
+        <v>102.72</v>
       </c>
       <c r="H13">
-        <v>0.83</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -869,16 +869,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H15">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -889,22 +889,22 @@
         <v>110</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>49.8</v>
+        <v>52.8</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>58.8</v>
+        <v>63.8</v>
       </c>
       <c r="H16">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="H17">
-        <v>0.76</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -961,19 +961,19 @@
         <v>100</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="H19">
-        <v>0.51</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -984,19 +984,19 @@
         <v>50</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H20">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1030,19 +1030,19 @@
         <v>80</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H23">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1102,7 +1102,7 @@
         <v>20</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1128,16 +1128,16 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H26">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1148,10 +1148,10 @@
         <v>150</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E27">
         <v>1.3</v>
@@ -1160,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>62.3</v>
+        <v>93.3</v>
       </c>
       <c r="H27">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1202,14 +1202,17 @@
       <c r="D29">
         <v>38</v>
       </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H29">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1246,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1292,16 +1295,16 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H33">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1312,19 +1315,19 @@
         <v>60</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H34">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1358,19 +1361,19 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H36">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1381,10 +1384,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -1393,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>0.42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1459,16 +1462,16 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H40">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1528,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1571,10 +1574,10 @@
         <v>30</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>2.5</v>
@@ -1583,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="H45">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -584,19 +584,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H3">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -702,19 +702,19 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H8">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1292,19 +1292,19 @@
         <v>170</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H33">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="34" spans="1:8">

--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -561,19 +561,22 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="D2">
-        <v>145</v>
+        <v>156</v>
+      </c>
+      <c r="E2">
+        <v>4.5</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>145</v>
+        <v>160.5</v>
       </c>
       <c r="H2">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -584,19 +587,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="H3">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -610,16 +613,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="E4">
+        <v>14.44</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>94</v>
+        <v>118.44</v>
       </c>
       <c r="H4">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -633,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E5">
         <v>19.8</v>
@@ -642,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>141.8</v>
+        <v>158.8</v>
       </c>
       <c r="H5">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -656,19 +662,19 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="H6">
-        <v>0.86</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -682,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="H7">
-        <v>0.43</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -702,7 +708,7 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>128</v>
@@ -725,19 +731,19 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="H9">
-        <v>1.05</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -771,7 +777,7 @@
         <v>140</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>51</v>
@@ -817,10 +823,10 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <v>41.72</v>
@@ -829,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>102.72</v>
+        <v>137.72</v>
       </c>
       <c r="H13">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -866,19 +872,19 @@
         <v>200</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="H15">
-        <v>0.55</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -889,10 +895,10 @@
         <v>110</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>52.8</v>
@@ -901,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>63.8</v>
+        <v>69.8</v>
       </c>
       <c r="H16">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -961,19 +967,19 @@
         <v>100</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H19">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1030,7 +1036,7 @@
         <v>80</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>30</v>
@@ -1128,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1148,7 +1154,7 @@
         <v>150</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>92</v>
@@ -1292,16 +1298,16 @@
         <v>170</v>
       </c>
       <c r="C33">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33">
         <v>0.11</v>
@@ -1315,7 +1321,7 @@
         <v>60</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>39</v>
@@ -1384,7 +1390,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>30</v>
@@ -1413,16 +1419,16 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H38">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1482,19 +1488,19 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H41">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1551,19 +1557,19 @@
         <v>20</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H44">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1574,7 +1580,7 @@
         <v>30</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>4</v>

--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -561,22 +561,19 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>-14</v>
       </c>
       <c r="D2">
-        <v>156</v>
-      </c>
-      <c r="E2">
-        <v>4.5</v>
+        <v>141</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>160.5</v>
+        <v>141</v>
       </c>
       <c r="H2">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -587,19 +584,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>-9</v>
       </c>
       <c r="D3">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="H3">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -610,22 +607,19 @@
         <v>160</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-45.44</v>
       </c>
       <c r="D4">
-        <v>104</v>
-      </c>
-      <c r="E4">
-        <v>14.44</v>
+        <v>73</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>118.44</v>
+        <v>73</v>
       </c>
       <c r="H4">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -636,10 +630,10 @@
         <v>90</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-40.00000000000001</v>
       </c>
       <c r="D5">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>19.8</v>
@@ -648,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>158.8</v>
+        <v>118.8</v>
       </c>
       <c r="H5">
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -662,19 +656,19 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-64</v>
       </c>
       <c r="D6">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="H6">
-        <v>1.19</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -685,19 +679,19 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="D7">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H7">
-        <v>0.58</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -708,19 +702,19 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="D8">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="H8">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -731,19 +725,19 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>-35</v>
       </c>
       <c r="D9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H9">
-        <v>1.42</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -754,19 +748,19 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="D10">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -777,19 +771,19 @@
         <v>140</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -800,19 +794,19 @@
         <v>70</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="D12">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -823,22 +817,22 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>-37</v>
       </c>
       <c r="D13">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>41.72</v>
+        <v>34.72</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>137.72</v>
+        <v>66.72</v>
       </c>
       <c r="H13">
-        <v>1.72</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -872,19 +866,19 @@
         <v>200</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>-29</v>
       </c>
       <c r="D15">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="H15">
-        <v>0.68</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -895,22 +889,22 @@
         <v>110</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>52.8</v>
+        <v>49.8</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>69.8</v>
+        <v>58.8</v>
       </c>
       <c r="H16">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -921,19 +915,19 @@
         <v>80</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="D17">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="H17">
-        <v>1.05</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -967,19 +961,19 @@
         <v>100</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>-33</v>
       </c>
       <c r="D19">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H19">
-        <v>0.93</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,19 +984,19 @@
         <v>50</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H20">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1036,19 +1030,19 @@
         <v>80</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1059,19 +1053,19 @@
         <v>40</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H23">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1131,19 +1125,19 @@
         <v>40</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H26">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1154,10 +1148,10 @@
         <v>150</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="D27">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>1.3</v>
@@ -1166,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>93.3</v>
+        <v>62.3</v>
       </c>
       <c r="H27">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1203,22 +1197,19 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D29">
         <v>38</v>
       </c>
-      <c r="E29">
-        <v>20</v>
-      </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1252,19 +1243,19 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1298,19 +1289,19 @@
         <v>170</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H33">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1321,19 +1312,19 @@
         <v>60</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="D34">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H34">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1367,19 +1358,19 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1390,10 +1381,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -1402,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1416,19 +1407,19 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1465,19 +1456,19 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H40">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1488,19 +1479,19 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H41">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1534,19 +1525,19 @@
         <v>30</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1557,19 +1548,19 @@
         <v>20</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H44">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1580,10 +1571,10 @@
         <v>30</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>2.5</v>
@@ -1592,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H45">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -561,19 +561,22 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>-14</v>
+        <v>4.599999999999994</v>
       </c>
       <c r="D2">
-        <v>141</v>
+        <v>159</v>
+      </c>
+      <c r="E2">
+        <v>6.1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>141</v>
+        <v>165.1</v>
       </c>
       <c r="H2">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -584,19 +587,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="H3">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -607,19 +610,22 @@
         <v>160</v>
       </c>
       <c r="C4">
-        <v>-45.44</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <v>14.44</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>138.44</v>
       </c>
       <c r="H4">
-        <v>0.46</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -630,10 +636,10 @@
         <v>90</v>
       </c>
       <c r="C5">
-        <v>-40.00000000000001</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="E5">
         <v>19.8</v>
@@ -642,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>118.8</v>
+        <v>179.8</v>
       </c>
       <c r="H5">
-        <v>1.32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -656,19 +662,19 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>-64</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="H6">
-        <v>0.66</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -679,19 +685,19 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>-25</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H7">
-        <v>0.41</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -702,19 +708,19 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-35</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="H8">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -725,19 +731,19 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H9">
-        <v>0.8</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -748,19 +754,19 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-42</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="H10">
-        <v>0.21</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -771,19 +777,19 @@
         <v>140</v>
       </c>
       <c r="C11">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H11">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -794,19 +800,19 @@
         <v>70</v>
       </c>
       <c r="C12">
-        <v>-22</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="H12">
-        <v>0.44</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -817,22 +823,22 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>-37</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="E13">
-        <v>34.72</v>
+        <v>41.72</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>66.72</v>
+        <v>138.72</v>
       </c>
       <c r="H13">
-        <v>0.83</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -866,19 +872,19 @@
         <v>200</v>
       </c>
       <c r="C15">
-        <v>-29</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="H15">
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -889,22 +895,22 @@
         <v>110</v>
       </c>
       <c r="C16">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>49.8</v>
+        <v>52.8</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>58.8</v>
+        <v>69.8</v>
       </c>
       <c r="H16">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -915,19 +921,19 @@
         <v>80</v>
       </c>
       <c r="C17">
-        <v>-23</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="H17">
-        <v>0.76</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,19 +944,19 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -961,19 +967,19 @@
         <v>100</v>
       </c>
       <c r="C19">
-        <v>-33</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="H19">
-        <v>0.51</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -984,19 +990,19 @@
         <v>50</v>
       </c>
       <c r="C20">
-        <v>-12</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H20">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1030,19 +1036,19 @@
         <v>80</v>
       </c>
       <c r="C22">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1053,19 +1059,19 @@
         <v>40</v>
       </c>
       <c r="C23">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H23">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1125,19 +1131,19 @@
         <v>40</v>
       </c>
       <c r="C26">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>0.45</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1148,10 +1154,10 @@
         <v>150</v>
       </c>
       <c r="C27">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E27">
         <v>1.3</v>
@@ -1160,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>62.3</v>
+        <v>93.3</v>
       </c>
       <c r="H27">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1197,19 +1203,22 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-20</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H29">
-        <v>0.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1243,19 +1252,19 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1266,19 +1275,19 @@
         <v>50</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H32">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1289,19 +1298,19 @@
         <v>170</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H33">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1312,19 +1321,19 @@
         <v>60</v>
       </c>
       <c r="C34">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>0.35</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1358,19 +1367,19 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H36">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1381,10 +1390,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -1393,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>0.42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1407,19 +1416,19 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H38">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1456,19 +1465,19 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H40">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1479,19 +1488,19 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H41">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1525,19 +1534,19 @@
         <v>30</v>
       </c>
       <c r="C43">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1548,19 +1557,19 @@
         <v>20</v>
       </c>
       <c r="C44">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H44">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1571,10 +1580,10 @@
         <v>30</v>
       </c>
       <c r="C45">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>2.5</v>
@@ -1583,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="H45">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/result/鑫e贷放款完成情况.xlsx
+++ b/result/鑫e贷放款完成情况.xlsx
@@ -561,7 +561,7 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>4.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>159</v>
@@ -587,19 +587,19 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H3">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -610,7 +610,7 @@
         <v>160</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>124</v>
@@ -636,10 +636,10 @@
         <v>90</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E5">
         <v>19.8</v>
@@ -648,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>179.8</v>
+        <v>180.8</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -662,19 +662,19 @@
         <v>120</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H6">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -685,19 +685,19 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H7">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -708,7 +708,7 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>129</v>
@@ -754,7 +754,7 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>89</v>
@@ -777,7 +777,7 @@
         <v>140</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>52</v>
@@ -800,19 +800,19 @@
         <v>70</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H12">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -823,10 +823,10 @@
         <v>80</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E13">
         <v>41.72</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>138.72</v>
+        <v>148.72</v>
       </c>
       <c r="H13">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -872,7 +872,7 @@
         <v>200</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>136</v>
@@ -921,7 +921,7 @@
         <v>80</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>104</v>
@@ -944,7 +944,7 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>80</v>
@@ -967,7 +967,7 @@
         <v>100</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>98</v>
@@ -990,19 +990,19 @@
         <v>50</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H20">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1036,19 +1036,19 @@
         <v>80</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1180,19 +1180,19 @@
         <v>60</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H28">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1203,7 +1203,7 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>60</v>
@@ -1275,7 +1275,7 @@
         <v>50</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>18</v>
@@ -1298,7 +1298,7 @@
         <v>170</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>21</v>
@@ -1321,7 +1321,7 @@
         <v>60</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>40</v>
@@ -1367,7 +1367,7 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>13</v>
@@ -1465,7 +1465,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -1488,7 +1488,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>19</v>
@@ -1534,19 +1534,19 @@
         <v>30</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H43">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="44" spans="1:8">
